--- a/개발문서/데이터 사전.xlsx
+++ b/개발문서/데이터 사전.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS X571GT\OneDrive - 연세대학교 (Yonsei University)\융합캡스톤디자인(암호화폐 자동매매)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS X571GT\Desktop\연세대학교 학부\Yonsei_WebService_Project\개발문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>암호화폐 자동매매 플랫폼 데이터 사전</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
       </rPr>
       <t xml:space="preserve"> 이상 오르면 매수하기 위함)</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분봉 (분 단위)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,6 +622,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
         <v>15</v>
